--- a/Data/upv_ucv_estere.xlsx
+++ b/Data/upv_ucv_estere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailbip-my.sharepoint.com/personal/andrea_spitaleri_bip-group_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amedeo.majo\Desktop\Progetti\Terna\GProjects\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{822A9435-F9B4-44EF-A41D-BC6AEB0244CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2BD8A8-6566-45AD-907A-0171EC6AFE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="720" windowWidth="21600" windowHeight="11205" activeTab="1" xr2:uid="{EC6619D2-9303-4042-AD75-164DA237CF26}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{EC6619D2-9303-4042-AD75-164DA237CF26}"/>
   </bookViews>
   <sheets>
     <sheet name="UCV_richieste" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
   <si>
     <t>UCV_EDCROEETLDFI</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Stato Città del Vaticano</t>
+  </si>
+  <si>
+    <t>Malta</t>
   </si>
 </sst>
 </file>
@@ -464,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,7 +507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -610,7 +613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -752,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,12 +769,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -779,17 +782,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -797,7 +800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,7 +816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,7 +824,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,7 +832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,7 +840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -845,7 +848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,7 +856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -861,7 +864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -869,7 +872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,7 +880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -885,7 +888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -893,7 +896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -901,7 +904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -909,7 +912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -917,7 +920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -925,7 +928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -933,7 +936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -941,12 +944,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -954,7 +957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -962,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -970,7 +973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -978,7 +981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -986,7 +989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -994,7 +997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1132,15 +1135,15 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1164,17 +1167,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>78</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>82</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>83</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>84</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>86</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>87</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>88</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>89</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -1486,17 +1489,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>94</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>95</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
@@ -1600,12 +1609,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>97</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>98</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>99</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>27</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>100</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +1697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>36</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>101</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>102</v>
       </c>
